--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,30 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.7.0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>🚀 New version for this app</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3.7.0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>🚀 New version for this app</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,30 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4.0.0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">🚀 New </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4.0.0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">🚀 New </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Update Details</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,7 @@
           <t>📢 New update: Enhanced UI and bug fixes</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +474,7 @@
           <t>📢 New update: Enhanced UI and bug fixes</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +487,7 @@
           <t>🚀 New version for this app</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +500,7 @@
           <t>🚀 New version for this app</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +513,7 @@
           <t xml:space="preserve">🚀 New </t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -514,6 +524,20 @@
       <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">🚀 New </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4.1.0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Updating to the latest version.</t>
         </is>
       </c>
     </row>

--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,19 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4.2.0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Updating to the latest version.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,19 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4.4.0 w.e.f 7 March 2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Updating to the latest version.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,19 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4.5.0 w.e.f 7 March 2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Updating to the latest version.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,19 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4.7.0 w.e.f 10 March 2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Updating to the latest version of this app.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/update_log.xlsx
+++ b/update_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,19 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4.8.0 w.e.f 10 March 2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Updating to the latest version of this app.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
